--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/shujia/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/shujia/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2017-05-22 02:07:43</t>
@@ -295,8 +295,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101845877511" customWidth="1"/>
+    <col min="6" max="6" width="13.4101845877511" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -415,7 +415,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -680,7 +680,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/shujia/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/shujia/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-05-22 02:07:43</t>
@@ -139,7 +139,7 @@
     <t>2017-05-22 02:07:23</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-05-22 02:09:37</t>
   </si>
   <si>
     <t>True</t>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>14f64019-da68-4340-9233-f9329e56b714.76b4bf4e2c2d897cd93a205b8e037d8cf880db72.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-05-22 02:10:06</t>
   </si>
   <si>
     <t>729e5e2f-2429-4344-bdec-9d2d67b82b67.3da2f0f866f23e9a2f9fb1234b638ea118724000.de-de.xlf</t>
@@ -295,8 +298,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="13.4101845877511" customWidth="1"/>
-    <col min="6" max="6" width="13.4101845877511" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -415,15 +418,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
     <col min="9" max="9" width="23.1132158551897" customWidth="1"/>
-    <col min="10" max="10" width="18.6506053379604" customWidth="1"/>
-    <col min="11" max="11" width="21.7054770333426" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
     <col min="13" max="13" width="23.8743765694754" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
@@ -517,11 +520,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>41</v>
@@ -573,11 +576,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>41</v>
@@ -629,11 +632,11 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>41</v>
@@ -660,8 +663,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="14f64019-da68-4340-9233-f9329e56b714.yml" r:id="rId2"/>
-    <hyperlink ref="A3" display="729e5e2f-2429-4344-bdec-9d2d67b82b67.yml" r:id="rId3"/>
-    <hyperlink ref="A4" display="e557a9b9-431d-48d4-8775-cfbe719ab9a2.md" r:id="rId4"/>
+    <hyperlink ref="J2" display="14f64019-da68-4340-9233-f9329e56b714.yml" r:id="rId3"/>
+    <hyperlink ref="A3" display="729e5e2f-2429-4344-bdec-9d2d67b82b67.yml" r:id="rId4"/>
+    <hyperlink ref="J3" display="729e5e2f-2429-4344-bdec-9d2d67b82b67.yml" r:id="rId5"/>
+    <hyperlink ref="A4" display="e557a9b9-431d-48d4-8775-cfbe719ab9a2.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="e557a9b9-431d-48d4-8775-cfbe719ab9a2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -680,15 +686,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="13.4101845877511" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197069440569" customWidth="1"/>
     <col min="9" max="9" width="23.1132158551897" customWidth="1"/>
-    <col min="10" max="10" width="18.6506053379604" customWidth="1"/>
-    <col min="11" max="11" width="21.7054770333426" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533006940569" customWidth="1"/>
     <col min="13" max="13" width="23.8743765694754" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
@@ -782,14 +788,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -830,7 +836,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -838,14 +844,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -886,7 +892,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -894,14 +900,14 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -925,8 +931,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="14f64019-da68-4340-9233-f9329e56b714.yml" r:id="rId2"/>
-    <hyperlink ref="A3" display="729e5e2f-2429-4344-bdec-9d2d67b82b67.yml" r:id="rId3"/>
-    <hyperlink ref="A4" display="e557a9b9-431d-48d4-8775-cfbe719ab9a2.md" r:id="rId4"/>
+    <hyperlink ref="J2" display="14f64019-da68-4340-9233-f9329e56b714.yml" r:id="rId3"/>
+    <hyperlink ref="A3" display="729e5e2f-2429-4344-bdec-9d2d67b82b67.yml" r:id="rId4"/>
+    <hyperlink ref="J3" display="729e5e2f-2429-4344-bdec-9d2d67b82b67.yml" r:id="rId5"/>
+    <hyperlink ref="A4" display="e557a9b9-431d-48d4-8775-cfbe719ab9a2.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="e557a9b9-431d-48d4-8775-cfbe719ab9a2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
